--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value650.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value650.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.321279796938014</v>
+        <v>1.193987488746643</v>
       </c>
       <c r="B1">
-        <v>2.20486603284963</v>
+        <v>2.315817594528198</v>
       </c>
       <c r="C1">
-        <v>2.68232381287101</v>
+        <v>3.449532032012939</v>
       </c>
       <c r="D1">
-        <v>3.091317351885677</v>
+        <v>3.336933135986328</v>
       </c>
       <c r="E1">
-        <v>2.425789720796193</v>
+        <v>1.142379522323608</v>
       </c>
     </row>
   </sheetData>
